--- a/data/flight_distance_duration.xlsx
+++ b/data/flight_distance_duration.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EA9AA2-2DD0-46ED-A4C4-E6DE6E7CC044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751BC87B-93D7-47BD-8DE9-7306F15F39B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -398,7 +398,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,7 +488,7 @@
         <v>357</v>
       </c>
       <c r="D6">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -497,21 +497,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100763DCA751E988E49B18D7A5F3E2E0A59" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7de07ceb4021a46e644f2475dce3c08e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd" xmlns:ns3="c78a888a-83d8-49bb-8890-6eb97e8a3c0e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1a575a7fa9043b0502b32047f1ff6be7" ns2:_="" ns3:_="">
     <xsd:import namespace="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd"/>
@@ -734,32 +719,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E133360-FB56-4F14-8660-8E1D2D6DD9E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="c78a888a-83d8-49bb-8890-6eb97e8a3c0e"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D89D33D8-D5B7-4D60-A108-C4BE84FB18F2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19416146-3E24-484B-82A5-2F082D37E805}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -776,4 +751,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D89D33D8-D5B7-4D60-A108-C4BE84FB18F2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E133360-FB56-4F14-8660-8E1D2D6DD9E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="c78a888a-83d8-49bb-8890-6eb97e8a3c0e"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/flight_distance_duration.xlsx
+++ b/data/flight_distance_duration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751BC87B-93D7-47BD-8DE9-7306F15F39B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055A682D-AC66-476A-89F0-A49408C96C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="working" sheetId="2" r:id="rId1"/>
@@ -99,9 +99,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -139,7 +139,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -245,7 +245,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -387,7 +387,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -395,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD18BD00-52A8-4655-B5FA-DAE1B4B59EA4}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,7 +488,21 @@
         <v>357</v>
       </c>
       <c r="D6">
-        <v>1000</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2022</v>
+      </c>
+      <c r="B7">
+        <v>1067</v>
+      </c>
+      <c r="C7">
+        <v>576</v>
+      </c>
+      <c r="D7">
+        <v>108.7</v>
       </c>
     </row>
   </sheetData>
@@ -497,6 +511,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100763DCA751E988E49B18D7A5F3E2E0A59" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7de07ceb4021a46e644f2475dce3c08e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd" xmlns:ns3="c78a888a-83d8-49bb-8890-6eb97e8a3c0e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1a575a7fa9043b0502b32047f1ff6be7" ns2:_="" ns3:_="">
     <xsd:import namespace="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd"/>
@@ -719,15 +742,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -735,6 +749,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D89D33D8-D5B7-4D60-A108-C4BE84FB18F2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19416146-3E24-484B-82A5-2F082D37E805}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -753,14 +775,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D89D33D8-D5B7-4D60-A108-C4BE84FB18F2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E133360-FB56-4F14-8660-8E1D2D6DD9E1}">
   <ds:schemaRefs>
